--- a/CS_data_Literature_D1_D2.xlsx
+++ b/CS_data_Literature_D1_D2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/spinches_swin_edu_au/Documents/2. P10 Titomic TKF/6. Titomic - Martin PhD 102801195/Manuscripts/DE_prediction_manuscript_draft/data/results_20240520_NN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau-my.sharepoint.com/personal/meberle_swin_edu_au/Documents/Desktop/temp/H4_SCT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="11_23F921ED13CB0D12872C4C1BC54673CF511B4A1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D86E5A4-ACAA-4C3D-BC01-3E37E4D40782}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="11_23F921ED13CB0D12872C4C1BC54673CF511B4A1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8CBF02-38E0-4A4E-A3CE-C3C5AAE1608A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -308,6 +308,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523112B7-4269-4345-BE28-4CF6440CC01C}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="G131" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +722,7 @@
       <c r="K2" s="2">
         <v>12</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M2" s="2">
@@ -767,8 +769,8 @@
       <c r="K3" s="2">
         <v>40</v>
       </c>
-      <c r="L3" s="2">
-        <v>14.0067</v>
+      <c r="L3" s="9">
+        <v>28.02</v>
       </c>
       <c r="M3" s="2">
         <v>4</v>
@@ -814,8 +816,8 @@
       <c r="K4" s="2">
         <v>40</v>
       </c>
-      <c r="L4" s="2">
-        <v>14.0067</v>
+      <c r="L4" s="9">
+        <v>28.02</v>
       </c>
       <c r="M4" s="2">
         <v>4</v>
@@ -861,8 +863,8 @@
       <c r="K5" s="2">
         <v>40</v>
       </c>
-      <c r="L5" s="2">
-        <v>14.0067</v>
+      <c r="L5" s="9">
+        <v>28.02</v>
       </c>
       <c r="M5" s="2">
         <v>3</v>
@@ -908,8 +910,8 @@
       <c r="K6" s="2">
         <v>40</v>
       </c>
-      <c r="L6" s="2">
-        <v>14.0067</v>
+      <c r="L6" s="9">
+        <v>28.02</v>
       </c>
       <c r="M6" s="2">
         <v>3</v>
@@ -955,8 +957,8 @@
       <c r="K7" s="2">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
-        <v>14.0067</v>
+      <c r="L7" s="9">
+        <v>28.02</v>
       </c>
       <c r="M7" s="2">
         <v>3</v>
@@ -1002,8 +1004,8 @@
       <c r="K8" s="2">
         <v>40</v>
       </c>
-      <c r="L8" s="2">
-        <v>14.0067</v>
+      <c r="L8" s="9">
+        <v>28.02</v>
       </c>
       <c r="M8" s="2">
         <v>3</v>
@@ -1049,8 +1051,8 @@
       <c r="K9" s="2">
         <v>40</v>
       </c>
-      <c r="L9" s="2">
-        <v>14.0067</v>
+      <c r="L9" s="9">
+        <v>28.02</v>
       </c>
       <c r="M9" s="2">
         <v>4</v>
@@ -1096,8 +1098,8 @@
       <c r="K10" s="2">
         <v>40</v>
       </c>
-      <c r="L10" s="2">
-        <v>14.0067</v>
+      <c r="L10" s="9">
+        <v>28.02</v>
       </c>
       <c r="M10" s="2">
         <v>4</v>
@@ -1143,8 +1145,8 @@
       <c r="K11" s="2">
         <v>40</v>
       </c>
-      <c r="L11" s="2">
-        <v>14.0067</v>
+      <c r="L11" s="9">
+        <v>28.02</v>
       </c>
       <c r="M11" s="2">
         <v>3</v>
@@ -1190,8 +1192,8 @@
       <c r="K12" s="2">
         <v>40</v>
       </c>
-      <c r="L12" s="2">
-        <v>14.0067</v>
+      <c r="L12" s="9">
+        <v>28.02</v>
       </c>
       <c r="M12" s="2">
         <v>3</v>
@@ -1237,8 +1239,8 @@
       <c r="K13" s="2">
         <v>40</v>
       </c>
-      <c r="L13" s="2">
-        <v>14.0067</v>
+      <c r="L13" s="9">
+        <v>28.02</v>
       </c>
       <c r="M13" s="2">
         <v>3</v>
@@ -1284,8 +1286,8 @@
       <c r="K14" s="2">
         <v>40</v>
       </c>
-      <c r="L14" s="2">
-        <v>14.0067</v>
+      <c r="L14" s="9">
+        <v>28.02</v>
       </c>
       <c r="M14" s="2">
         <v>3</v>
@@ -1331,8 +1333,8 @@
       <c r="K15" s="2">
         <v>40</v>
       </c>
-      <c r="L15" s="2">
-        <v>14.0067</v>
+      <c r="L15" s="9">
+        <v>28.02</v>
       </c>
       <c r="M15" s="2">
         <v>4</v>
@@ -1378,8 +1380,8 @@
       <c r="K16" s="2">
         <v>40</v>
       </c>
-      <c r="L16" s="2">
-        <v>14.0067</v>
+      <c r="L16" s="9">
+        <v>28.02</v>
       </c>
       <c r="M16" s="2">
         <v>4</v>
@@ -1425,8 +1427,8 @@
       <c r="K17" s="2">
         <v>40</v>
       </c>
-      <c r="L17" s="2">
-        <v>14.0067</v>
+      <c r="L17" s="9">
+        <v>28.02</v>
       </c>
       <c r="M17" s="2">
         <v>3</v>
@@ -1472,8 +1474,8 @@
       <c r="K18" s="2">
         <v>40</v>
       </c>
-      <c r="L18" s="2">
-        <v>14.0067</v>
+      <c r="L18" s="9">
+        <v>28.02</v>
       </c>
       <c r="M18" s="2">
         <v>3</v>
@@ -1519,8 +1521,8 @@
       <c r="K19" s="2">
         <v>40</v>
       </c>
-      <c r="L19" s="2">
-        <v>14.0067</v>
+      <c r="L19" s="9">
+        <v>28.02</v>
       </c>
       <c r="M19" s="2">
         <v>3</v>
@@ -1566,8 +1568,8 @@
       <c r="K20" s="2">
         <v>40</v>
       </c>
-      <c r="L20" s="2">
-        <v>14.0067</v>
+      <c r="L20" s="9">
+        <v>28.02</v>
       </c>
       <c r="M20" s="2">
         <v>3</v>
@@ -1613,8 +1615,8 @@
       <c r="K21" s="2">
         <v>40</v>
       </c>
-      <c r="L21" s="2">
-        <v>14.0067</v>
+      <c r="L21" s="9">
+        <v>28.02</v>
       </c>
       <c r="M21" s="2">
         <v>4</v>
@@ -1660,8 +1662,8 @@
       <c r="K22" s="2">
         <v>40</v>
       </c>
-      <c r="L22" s="2">
-        <v>14.0067</v>
+      <c r="L22" s="9">
+        <v>28.02</v>
       </c>
       <c r="M22" s="2">
         <v>4</v>
@@ -1707,8 +1709,8 @@
       <c r="K23" s="2">
         <v>40</v>
       </c>
-      <c r="L23" s="2">
-        <v>14.0067</v>
+      <c r="L23" s="9">
+        <v>28.02</v>
       </c>
       <c r="M23" s="2">
         <v>3</v>
@@ -1754,8 +1756,8 @@
       <c r="K24" s="2">
         <v>40</v>
       </c>
-      <c r="L24" s="2">
-        <v>14.0067</v>
+      <c r="L24" s="9">
+        <v>28.02</v>
       </c>
       <c r="M24" s="2">
         <v>3</v>
@@ -1801,8 +1803,8 @@
       <c r="K25" s="2">
         <v>40</v>
       </c>
-      <c r="L25" s="2">
-        <v>14.0067</v>
+      <c r="L25" s="9">
+        <v>28.02</v>
       </c>
       <c r="M25" s="2">
         <v>3</v>
@@ -1848,8 +1850,8 @@
       <c r="K26" s="2">
         <v>40</v>
       </c>
-      <c r="L26" s="2">
-        <v>14.0067</v>
+      <c r="L26" s="9">
+        <v>28.02</v>
       </c>
       <c r="M26" s="2">
         <v>3</v>
@@ -1895,8 +1897,8 @@
       <c r="K27" s="2">
         <v>40</v>
       </c>
-      <c r="L27" s="2">
-        <v>14.0067</v>
+      <c r="L27" s="9">
+        <v>28.02</v>
       </c>
       <c r="M27" s="2">
         <v>4</v>
@@ -1942,8 +1944,8 @@
       <c r="K28" s="2">
         <v>40</v>
       </c>
-      <c r="L28" s="2">
-        <v>14.0067</v>
+      <c r="L28" s="9">
+        <v>28.02</v>
       </c>
       <c r="M28" s="2">
         <v>4</v>
@@ -1989,8 +1991,8 @@
       <c r="K29" s="2">
         <v>40</v>
       </c>
-      <c r="L29" s="2">
-        <v>14.0067</v>
+      <c r="L29" s="9">
+        <v>28.02</v>
       </c>
       <c r="M29" s="2">
         <v>3</v>
@@ -2036,8 +2038,8 @@
       <c r="K30" s="2">
         <v>40</v>
       </c>
-      <c r="L30" s="2">
-        <v>14.0067</v>
+      <c r="L30" s="9">
+        <v>28.02</v>
       </c>
       <c r="M30" s="2">
         <v>3</v>
@@ -2083,8 +2085,8 @@
       <c r="K31" s="2">
         <v>40</v>
       </c>
-      <c r="L31" s="2">
-        <v>14.0067</v>
+      <c r="L31" s="9">
+        <v>28.02</v>
       </c>
       <c r="M31" s="2">
         <v>3</v>
@@ -2130,8 +2132,8 @@
       <c r="K32" s="2">
         <v>40</v>
       </c>
-      <c r="L32" s="2">
-        <v>14.0067</v>
+      <c r="L32" s="9">
+        <v>28.02</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
@@ -2177,8 +2179,8 @@
       <c r="K33" s="2">
         <v>40</v>
       </c>
-      <c r="L33" s="2">
-        <v>14.0067</v>
+      <c r="L33" s="9">
+        <v>28.02</v>
       </c>
       <c r="M33" s="2">
         <v>4</v>
@@ -2224,8 +2226,8 @@
       <c r="K34" s="2">
         <v>40</v>
       </c>
-      <c r="L34" s="2">
-        <v>14.0067</v>
+      <c r="L34" s="9">
+        <v>28.02</v>
       </c>
       <c r="M34" s="2">
         <v>4</v>
@@ -2271,8 +2273,8 @@
       <c r="K35" s="2">
         <v>40</v>
       </c>
-      <c r="L35" s="2">
-        <v>14.0067</v>
+      <c r="L35" s="9">
+        <v>28.02</v>
       </c>
       <c r="M35" s="2">
         <v>4</v>
@@ -2318,8 +2320,8 @@
       <c r="K36" s="2">
         <v>40</v>
       </c>
-      <c r="L36" s="2">
-        <v>14.0067</v>
+      <c r="L36" s="9">
+        <v>28.02</v>
       </c>
       <c r="M36" s="2">
         <v>4</v>
@@ -2365,8 +2367,8 @@
       <c r="K37" s="2">
         <v>30</v>
       </c>
-      <c r="L37" s="2">
-        <v>14.0067</v>
+      <c r="L37" s="9">
+        <v>28.02</v>
       </c>
       <c r="M37" s="2">
         <v>2.5</v>
@@ -2412,8 +2414,8 @@
       <c r="K38" s="2">
         <v>30</v>
       </c>
-      <c r="L38" s="2">
-        <v>14.0067</v>
+      <c r="L38" s="9">
+        <v>28.02</v>
       </c>
       <c r="M38" s="2">
         <v>2.5</v>
@@ -2459,8 +2461,8 @@
       <c r="K39" s="2">
         <v>30</v>
       </c>
-      <c r="L39" s="2">
-        <v>14.0067</v>
+      <c r="L39" s="9">
+        <v>28.02</v>
       </c>
       <c r="M39" s="2">
         <v>2.5</v>
@@ -2506,8 +2508,8 @@
       <c r="K40" s="2">
         <v>30</v>
       </c>
-      <c r="L40" s="2">
-        <v>14.0067</v>
+      <c r="L40" s="9">
+        <v>28.02</v>
       </c>
       <c r="M40" s="2">
         <v>2.5</v>
@@ -2553,8 +2555,8 @@
       <c r="K41" s="2">
         <v>30</v>
       </c>
-      <c r="L41" s="2">
-        <v>14.0067</v>
+      <c r="L41" s="9">
+        <v>28.02</v>
       </c>
       <c r="M41" s="2">
         <v>2.5</v>
@@ -2600,8 +2602,8 @@
       <c r="K42" s="2">
         <v>30</v>
       </c>
-      <c r="L42" s="2">
-        <v>14.0067</v>
+      <c r="L42" s="9">
+        <v>28.02</v>
       </c>
       <c r="M42" s="2">
         <v>2.5</v>
@@ -2647,7 +2649,7 @@
       <c r="K43" s="2">
         <v>30</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M43" s="2">
@@ -2694,7 +2696,7 @@
       <c r="K44" s="2">
         <v>30</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M44" s="2">
@@ -2741,7 +2743,7 @@
       <c r="K45" s="2">
         <v>30</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M45" s="2">
@@ -2788,7 +2790,7 @@
       <c r="K46" s="2">
         <v>30</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M46" s="2">
@@ -2835,7 +2837,7 @@
       <c r="K47" s="2">
         <v>30</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M47" s="2">
@@ -2882,8 +2884,8 @@
       <c r="K48" s="2">
         <v>30</v>
       </c>
-      <c r="L48" s="2">
-        <v>14.0067</v>
+      <c r="L48" s="9">
+        <v>28.02</v>
       </c>
       <c r="M48" s="2">
         <v>2.7</v>
@@ -2929,8 +2931,8 @@
       <c r="K49" s="2">
         <v>30</v>
       </c>
-      <c r="L49" s="2">
-        <v>14.0067</v>
+      <c r="L49" s="9">
+        <v>28.02</v>
       </c>
       <c r="M49" s="2">
         <v>2.7</v>
@@ -2976,7 +2978,7 @@
       <c r="K50" s="2">
         <v>30</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M50" s="2">
@@ -3023,7 +3025,7 @@
       <c r="K51" s="2">
         <v>30</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M51" s="2">
@@ -3070,7 +3072,7 @@
       <c r="K52" s="2">
         <v>30</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M52" s="2">
@@ -3117,7 +3119,7 @@
       <c r="K53" s="2">
         <v>30</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M53" s="2">
@@ -3164,8 +3166,8 @@
       <c r="K54" s="2">
         <v>80</v>
       </c>
-      <c r="L54" s="2">
-        <v>14.0067</v>
+      <c r="L54" s="9">
+        <v>28.02</v>
       </c>
       <c r="M54" s="2">
         <v>4</v>
@@ -3211,8 +3213,8 @@
       <c r="K55" s="2">
         <v>80</v>
       </c>
-      <c r="L55" s="2">
-        <v>14.0067</v>
+      <c r="L55" s="9">
+        <v>28.02</v>
       </c>
       <c r="M55" s="2">
         <v>4</v>
@@ -3258,7 +3260,7 @@
       <c r="K56" s="2">
         <v>10</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M56" s="2">
@@ -3305,7 +3307,7 @@
       <c r="K57" s="2">
         <v>20</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M57" s="2">
@@ -3352,7 +3354,7 @@
       <c r="K58" s="2">
         <v>30</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M58" s="2">
@@ -3399,7 +3401,7 @@
       <c r="K59" s="2">
         <v>40</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M59" s="2">
@@ -3446,7 +3448,7 @@
       <c r="K60" s="2">
         <v>50</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M60" s="2">
@@ -3493,7 +3495,7 @@
       <c r="K61" s="2">
         <v>60</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M61" s="2">
@@ -3540,7 +3542,7 @@
       <c r="K62" s="2">
         <v>90</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M62" s="2">
@@ -3587,7 +3589,7 @@
       <c r="K63" s="2">
         <v>120</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M63" s="2">
@@ -3634,7 +3636,7 @@
       <c r="K64" s="2">
         <v>150</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M64" s="2">
@@ -3681,7 +3683,7 @@
       <c r="K65" s="2">
         <v>180</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M65" s="2">
@@ -3728,7 +3730,7 @@
       <c r="K66" s="2">
         <v>210</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M66" s="2">
@@ -3775,7 +3777,7 @@
       <c r="K67" s="2">
         <v>240</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M67" s="2">
@@ -3822,7 +3824,7 @@
       <c r="K68" s="2">
         <v>10</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M68" s="2">
@@ -3869,7 +3871,7 @@
       <c r="K69" s="2">
         <v>20</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M69" s="2">
@@ -3916,7 +3918,7 @@
       <c r="K70" s="2">
         <v>30</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M70" s="2">
@@ -3963,7 +3965,7 @@
       <c r="K71" s="2">
         <v>40</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M71" s="2">
@@ -4010,7 +4012,7 @@
       <c r="K72" s="2">
         <v>50</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M72" s="2">
@@ -4057,7 +4059,7 @@
       <c r="K73" s="2">
         <v>60</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M73" s="2">
@@ -4104,7 +4106,7 @@
       <c r="K74" s="2">
         <v>90</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M74" s="2">
@@ -4151,7 +4153,7 @@
       <c r="K75" s="2">
         <v>120</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M75" s="2">
@@ -4198,7 +4200,7 @@
       <c r="K76" s="2">
         <v>150</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M76" s="2">
@@ -4245,7 +4247,7 @@
       <c r="K77" s="2">
         <v>180</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M77" s="2">
@@ -4292,7 +4294,7 @@
       <c r="K78" s="2">
         <v>210</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M78" s="2">
@@ -4339,7 +4341,7 @@
       <c r="K79" s="2">
         <v>240</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M79" s="2">
@@ -4386,7 +4388,7 @@
       <c r="K80" s="2">
         <v>10</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M80" s="2">
@@ -4433,7 +4435,7 @@
       <c r="K81" s="2">
         <v>20</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M81" s="2">
@@ -4480,7 +4482,7 @@
       <c r="K82" s="2">
         <v>30</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M82" s="2">
@@ -4527,7 +4529,7 @@
       <c r="K83" s="2">
         <v>40</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M83" s="2">
@@ -4574,7 +4576,7 @@
       <c r="K84" s="2">
         <v>50</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M84" s="2">
@@ -4621,7 +4623,7 @@
       <c r="K85" s="2">
         <v>60</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M85" s="2">
@@ -4668,7 +4670,7 @@
       <c r="K86" s="2">
         <v>90</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M86" s="2">
@@ -4715,7 +4717,7 @@
       <c r="K87" s="2">
         <v>120</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L87" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M87" s="2">
@@ -4762,7 +4764,7 @@
       <c r="K88" s="2">
         <v>150</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M88" s="2">
@@ -4809,7 +4811,7 @@
       <c r="K89" s="2">
         <v>180</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L89" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M89" s="2">
@@ -4856,7 +4858,7 @@
       <c r="K90" s="2">
         <v>210</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M90" s="2">
@@ -4903,7 +4905,7 @@
       <c r="K91" s="2">
         <v>240</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M91" s="2">
@@ -4950,8 +4952,8 @@
       <c r="K92" s="2">
         <v>10</v>
       </c>
-      <c r="L92" s="2">
-        <v>14.0067</v>
+      <c r="L92" s="9">
+        <v>28.02</v>
       </c>
       <c r="M92" s="2">
         <v>3</v>
@@ -4997,8 +4999,8 @@
       <c r="K93" s="2">
         <v>20</v>
       </c>
-      <c r="L93" s="2">
-        <v>14.0067</v>
+      <c r="L93" s="9">
+        <v>28.02</v>
       </c>
       <c r="M93" s="2">
         <v>3</v>
@@ -5044,8 +5046,8 @@
       <c r="K94" s="2">
         <v>30</v>
       </c>
-      <c r="L94" s="2">
-        <v>14.0067</v>
+      <c r="L94" s="9">
+        <v>28.02</v>
       </c>
       <c r="M94" s="2">
         <v>3</v>
@@ -5091,8 +5093,8 @@
       <c r="K95" s="2">
         <v>40</v>
       </c>
-      <c r="L95" s="2">
-        <v>14.0067</v>
+      <c r="L95" s="9">
+        <v>28.02</v>
       </c>
       <c r="M95" s="2">
         <v>3</v>
@@ -5138,8 +5140,8 @@
       <c r="K96" s="2">
         <v>50</v>
       </c>
-      <c r="L96" s="2">
-        <v>14.0067</v>
+      <c r="L96" s="9">
+        <v>28.02</v>
       </c>
       <c r="M96" s="2">
         <v>3</v>
@@ -5185,8 +5187,8 @@
       <c r="K97" s="2">
         <v>60</v>
       </c>
-      <c r="L97" s="2">
-        <v>14.0067</v>
+      <c r="L97" s="9">
+        <v>28.02</v>
       </c>
       <c r="M97" s="2">
         <v>3</v>
@@ -5232,8 +5234,8 @@
       <c r="K98" s="2">
         <v>90</v>
       </c>
-      <c r="L98" s="2">
-        <v>14.0067</v>
+      <c r="L98" s="9">
+        <v>28.02</v>
       </c>
       <c r="M98" s="2">
         <v>3</v>
@@ -5279,8 +5281,8 @@
       <c r="K99" s="2">
         <v>120</v>
       </c>
-      <c r="L99" s="2">
-        <v>14.0067</v>
+      <c r="L99" s="9">
+        <v>28.02</v>
       </c>
       <c r="M99" s="2">
         <v>3</v>
@@ -5326,8 +5328,8 @@
       <c r="K100" s="2">
         <v>150</v>
       </c>
-      <c r="L100" s="2">
-        <v>14.0067</v>
+      <c r="L100" s="9">
+        <v>28.02</v>
       </c>
       <c r="M100" s="2">
         <v>3</v>
@@ -5373,8 +5375,8 @@
       <c r="K101" s="2">
         <v>180</v>
       </c>
-      <c r="L101" s="2">
-        <v>14.0067</v>
+      <c r="L101" s="9">
+        <v>28.02</v>
       </c>
       <c r="M101" s="2">
         <v>3</v>
@@ -5420,8 +5422,8 @@
       <c r="K102" s="2">
         <v>210</v>
       </c>
-      <c r="L102" s="2">
-        <v>14.0067</v>
+      <c r="L102" s="9">
+        <v>28.02</v>
       </c>
       <c r="M102" s="2">
         <v>3</v>
@@ -5467,8 +5469,8 @@
       <c r="K103" s="2">
         <v>240</v>
       </c>
-      <c r="L103" s="2">
-        <v>14.0067</v>
+      <c r="L103" s="9">
+        <v>28.02</v>
       </c>
       <c r="M103" s="2">
         <v>3</v>
@@ -5514,8 +5516,8 @@
       <c r="K104" s="2">
         <v>10</v>
       </c>
-      <c r="L104" s="2">
-        <v>14.0067</v>
+      <c r="L104" s="9">
+        <v>28.02</v>
       </c>
       <c r="M104" s="2">
         <v>3</v>
@@ -5561,8 +5563,8 @@
       <c r="K105" s="2">
         <v>20</v>
       </c>
-      <c r="L105" s="2">
-        <v>14.0067</v>
+      <c r="L105" s="9">
+        <v>28.02</v>
       </c>
       <c r="M105" s="2">
         <v>3</v>
@@ -5608,8 +5610,8 @@
       <c r="K106" s="2">
         <v>30</v>
       </c>
-      <c r="L106" s="2">
-        <v>14.0067</v>
+      <c r="L106" s="9">
+        <v>28.02</v>
       </c>
       <c r="M106" s="2">
         <v>3</v>
@@ -5655,8 +5657,8 @@
       <c r="K107" s="2">
         <v>40</v>
       </c>
-      <c r="L107" s="2">
-        <v>14.0067</v>
+      <c r="L107" s="9">
+        <v>28.02</v>
       </c>
       <c r="M107" s="2">
         <v>3</v>
@@ -5702,8 +5704,8 @@
       <c r="K108" s="2">
         <v>50</v>
       </c>
-      <c r="L108" s="2">
-        <v>14.0067</v>
+      <c r="L108" s="9">
+        <v>28.02</v>
       </c>
       <c r="M108" s="2">
         <v>3</v>
@@ -5749,8 +5751,8 @@
       <c r="K109" s="2">
         <v>60</v>
       </c>
-      <c r="L109" s="2">
-        <v>14.0067</v>
+      <c r="L109" s="9">
+        <v>28.02</v>
       </c>
       <c r="M109" s="2">
         <v>3</v>
@@ -5796,8 +5798,8 @@
       <c r="K110" s="2">
         <v>90</v>
       </c>
-      <c r="L110" s="2">
-        <v>14.0067</v>
+      <c r="L110" s="9">
+        <v>28.02</v>
       </c>
       <c r="M110" s="2">
         <v>3</v>
@@ -5843,8 +5845,8 @@
       <c r="K111" s="2">
         <v>120</v>
       </c>
-      <c r="L111" s="2">
-        <v>14.0067</v>
+      <c r="L111" s="9">
+        <v>28.02</v>
       </c>
       <c r="M111" s="2">
         <v>3</v>
@@ -5890,8 +5892,8 @@
       <c r="K112" s="2">
         <v>150</v>
       </c>
-      <c r="L112" s="2">
-        <v>14.0067</v>
+      <c r="L112" s="9">
+        <v>28.02</v>
       </c>
       <c r="M112" s="2">
         <v>3</v>
@@ -5937,8 +5939,8 @@
       <c r="K113" s="2">
         <v>180</v>
       </c>
-      <c r="L113" s="2">
-        <v>14.0067</v>
+      <c r="L113" s="9">
+        <v>28.02</v>
       </c>
       <c r="M113" s="2">
         <v>3</v>
@@ -5984,8 +5986,8 @@
       <c r="K114" s="2">
         <v>210</v>
       </c>
-      <c r="L114" s="2">
-        <v>14.0067</v>
+      <c r="L114" s="9">
+        <v>28.02</v>
       </c>
       <c r="M114" s="2">
         <v>3</v>
@@ -6031,8 +6033,8 @@
       <c r="K115" s="2">
         <v>240</v>
       </c>
-      <c r="L115" s="2">
-        <v>14.0067</v>
+      <c r="L115" s="9">
+        <v>28.02</v>
       </c>
       <c r="M115" s="2">
         <v>3</v>
@@ -6078,8 +6080,8 @@
       <c r="K116" s="2">
         <v>10</v>
       </c>
-      <c r="L116" s="2">
-        <v>14.0067</v>
+      <c r="L116" s="9">
+        <v>28.02</v>
       </c>
       <c r="M116" s="2">
         <v>3</v>
@@ -6125,8 +6127,8 @@
       <c r="K117" s="2">
         <v>20</v>
       </c>
-      <c r="L117" s="2">
-        <v>14.0067</v>
+      <c r="L117" s="9">
+        <v>28.02</v>
       </c>
       <c r="M117" s="2">
         <v>3</v>
@@ -6172,8 +6174,8 @@
       <c r="K118" s="2">
         <v>30</v>
       </c>
-      <c r="L118" s="2">
-        <v>14.0067</v>
+      <c r="L118" s="9">
+        <v>28.02</v>
       </c>
       <c r="M118" s="2">
         <v>3</v>
@@ -6219,8 +6221,8 @@
       <c r="K119" s="2">
         <v>40</v>
       </c>
-      <c r="L119" s="2">
-        <v>14.0067</v>
+      <c r="L119" s="9">
+        <v>28.02</v>
       </c>
       <c r="M119" s="2">
         <v>3</v>
@@ -6266,8 +6268,8 @@
       <c r="K120" s="2">
         <v>50</v>
       </c>
-      <c r="L120" s="2">
-        <v>14.0067</v>
+      <c r="L120" s="9">
+        <v>28.02</v>
       </c>
       <c r="M120" s="2">
         <v>3</v>
@@ -6313,8 +6315,8 @@
       <c r="K121" s="2">
         <v>60</v>
       </c>
-      <c r="L121" s="2">
-        <v>14.0067</v>
+      <c r="L121" s="9">
+        <v>28.02</v>
       </c>
       <c r="M121" s="2">
         <v>3</v>
@@ -6360,8 +6362,8 @@
       <c r="K122" s="2">
         <v>90</v>
       </c>
-      <c r="L122" s="2">
-        <v>14.0067</v>
+      <c r="L122" s="9">
+        <v>28.02</v>
       </c>
       <c r="M122" s="2">
         <v>3</v>
@@ -6407,8 +6409,8 @@
       <c r="K123" s="2">
         <v>120</v>
       </c>
-      <c r="L123" s="2">
-        <v>14.0067</v>
+      <c r="L123" s="9">
+        <v>28.02</v>
       </c>
       <c r="M123" s="2">
         <v>3</v>
@@ -6454,8 +6456,8 @@
       <c r="K124" s="2">
         <v>150</v>
       </c>
-      <c r="L124" s="2">
-        <v>14.0067</v>
+      <c r="L124" s="9">
+        <v>28.02</v>
       </c>
       <c r="M124" s="2">
         <v>3</v>
@@ -6501,8 +6503,8 @@
       <c r="K125" s="2">
         <v>180</v>
       </c>
-      <c r="L125" s="2">
-        <v>14.0067</v>
+      <c r="L125" s="9">
+        <v>28.02</v>
       </c>
       <c r="M125" s="2">
         <v>3</v>
@@ -6548,8 +6550,8 @@
       <c r="K126" s="2">
         <v>210</v>
       </c>
-      <c r="L126" s="2">
-        <v>14.0067</v>
+      <c r="L126" s="9">
+        <v>28.02</v>
       </c>
       <c r="M126" s="2">
         <v>3</v>
@@ -6595,7 +6597,7 @@
       <c r="K127" s="2">
         <v>20</v>
       </c>
-      <c r="L127" s="2">
+      <c r="L127" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M127" s="2">
@@ -6642,7 +6644,7 @@
       <c r="K128" s="2">
         <v>20</v>
       </c>
-      <c r="L128" s="2">
+      <c r="L128" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M128" s="2">
@@ -6689,8 +6691,8 @@
       <c r="K129" s="2">
         <v>20</v>
       </c>
-      <c r="L129" s="2">
-        <v>14.0067</v>
+      <c r="L129" s="9">
+        <v>28.02</v>
       </c>
       <c r="M129" s="2">
         <v>2.8</v>
@@ -6736,8 +6738,8 @@
       <c r="K130" s="2">
         <v>20</v>
       </c>
-      <c r="L130" s="2">
-        <v>14.0067</v>
+      <c r="L130" s="9">
+        <v>28.02</v>
       </c>
       <c r="M130" s="2">
         <v>2.8</v>
@@ -6783,8 +6785,8 @@
       <c r="K131" s="2">
         <v>10</v>
       </c>
-      <c r="L131" s="2">
-        <v>14.0067</v>
+      <c r="L131" s="9">
+        <v>28.02</v>
       </c>
       <c r="M131" s="2">
         <v>0.7</v>
@@ -6830,8 +6832,8 @@
       <c r="K132" s="2">
         <v>10</v>
       </c>
-      <c r="L132" s="2">
-        <v>14.0067</v>
+      <c r="L132" s="9">
+        <v>28.02</v>
       </c>
       <c r="M132" s="2">
         <v>0.7</v>
@@ -6877,7 +6879,7 @@
       <c r="K133" s="2">
         <v>10</v>
       </c>
-      <c r="L133" s="2">
+      <c r="L133" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M133" s="2">
@@ -6924,7 +6926,7 @@
       <c r="K134" s="2">
         <v>10</v>
       </c>
-      <c r="L134" s="2">
+      <c r="L134" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M134" s="2">
@@ -6971,8 +6973,8 @@
       <c r="K135" s="2">
         <v>10</v>
       </c>
-      <c r="L135" s="2">
-        <v>14.0067</v>
+      <c r="L135" s="9">
+        <v>28.02</v>
       </c>
       <c r="M135" s="2">
         <v>0.7</v>
@@ -7018,7 +7020,7 @@
       <c r="K136" s="2">
         <v>10</v>
       </c>
-      <c r="L136" s="2">
+      <c r="L136" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M136" s="2">
@@ -7065,7 +7067,7 @@
       <c r="K137" s="2">
         <v>10</v>
       </c>
-      <c r="L137" s="2">
+      <c r="L137" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M137" s="2">
@@ -7112,7 +7114,7 @@
       <c r="K138" s="2">
         <v>10</v>
       </c>
-      <c r="L138" s="2">
+      <c r="L138" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M138" s="2">
@@ -7159,7 +7161,7 @@
       <c r="K139" s="2">
         <v>10</v>
       </c>
-      <c r="L139" s="2">
+      <c r="L139" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M139" s="2">
@@ -7206,7 +7208,7 @@
       <c r="K140" s="2">
         <v>10</v>
       </c>
-      <c r="L140" s="2">
+      <c r="L140" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M140" s="2">
@@ -7253,8 +7255,8 @@
       <c r="K141" s="2">
         <v>10</v>
       </c>
-      <c r="L141" s="2">
-        <v>14.0067</v>
+      <c r="L141" s="9">
+        <v>28.02</v>
       </c>
       <c r="M141" s="2">
         <v>0.7</v>
@@ -7300,8 +7302,8 @@
       <c r="K142" s="2">
         <v>10</v>
       </c>
-      <c r="L142" s="2">
-        <v>14.0067</v>
+      <c r="L142" s="9">
+        <v>28.02</v>
       </c>
       <c r="M142" s="2">
         <v>0.7</v>
@@ -7347,7 +7349,7 @@
       <c r="K143" s="2">
         <v>10</v>
       </c>
-      <c r="L143" s="2">
+      <c r="L143" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M143" s="2">
@@ -7394,7 +7396,7 @@
       <c r="K144" s="2">
         <v>10</v>
       </c>
-      <c r="L144" s="2">
+      <c r="L144" s="9">
         <v>4.0026020000000004</v>
       </c>
       <c r="M144" s="2">
@@ -7441,8 +7443,8 @@
       <c r="K145" s="2">
         <v>30</v>
       </c>
-      <c r="L145" s="2">
-        <v>14.0067</v>
+      <c r="L145" s="9">
+        <v>28.02</v>
       </c>
       <c r="M145" s="2">
         <v>2.5</v>
@@ -7488,8 +7490,8 @@
       <c r="K146" s="2">
         <v>60</v>
       </c>
-      <c r="L146" s="2">
-        <v>14.0067</v>
+      <c r="L146" s="9">
+        <v>28.02</v>
       </c>
       <c r="M146" s="2">
         <v>2.5</v>
@@ -7535,8 +7537,8 @@
       <c r="K147" s="2">
         <v>100</v>
       </c>
-      <c r="L147" s="2">
-        <v>14.0067</v>
+      <c r="L147" s="9">
+        <v>28.02</v>
       </c>
       <c r="M147" s="2">
         <v>2.5</v>
@@ -7582,8 +7584,8 @@
       <c r="K148" s="2">
         <v>30</v>
       </c>
-      <c r="L148" s="2">
-        <v>14.0067</v>
+      <c r="L148" s="9">
+        <v>28.02</v>
       </c>
       <c r="M148" s="2">
         <v>4</v>
@@ -7629,8 +7631,8 @@
       <c r="K149" s="2">
         <v>60</v>
       </c>
-      <c r="L149" s="2">
-        <v>14.0067</v>
+      <c r="L149" s="9">
+        <v>28.02</v>
       </c>
       <c r="M149" s="2">
         <v>4</v>
@@ -7676,8 +7678,8 @@
       <c r="K150" s="2">
         <v>100</v>
       </c>
-      <c r="L150" s="2">
-        <v>14.0067</v>
+      <c r="L150" s="9">
+        <v>28.02</v>
       </c>
       <c r="M150" s="2">
         <v>4</v>
@@ -7723,8 +7725,8 @@
       <c r="K151" s="2">
         <v>30</v>
       </c>
-      <c r="L151" s="2">
-        <v>14.0067</v>
+      <c r="L151" s="9">
+        <v>28.02</v>
       </c>
       <c r="M151" s="2">
         <v>2.5</v>
@@ -7770,8 +7772,8 @@
       <c r="K152" s="2">
         <v>60</v>
       </c>
-      <c r="L152" s="2">
-        <v>14.0067</v>
+      <c r="L152" s="9">
+        <v>28.02</v>
       </c>
       <c r="M152" s="2">
         <v>2.5</v>
@@ -7817,8 +7819,8 @@
       <c r="K153" s="2">
         <v>100</v>
       </c>
-      <c r="L153" s="2">
-        <v>14.0067</v>
+      <c r="L153" s="9">
+        <v>28.02</v>
       </c>
       <c r="M153" s="2">
         <v>2.5</v>
@@ -7864,8 +7866,8 @@
       <c r="K154" s="2">
         <v>30</v>
       </c>
-      <c r="L154" s="2">
-        <v>14.0067</v>
+      <c r="L154" s="9">
+        <v>28.02</v>
       </c>
       <c r="M154" s="2">
         <v>4</v>
@@ -7911,8 +7913,8 @@
       <c r="K155" s="2">
         <v>60</v>
       </c>
-      <c r="L155" s="2">
-        <v>14.0067</v>
+      <c r="L155" s="9">
+        <v>28.02</v>
       </c>
       <c r="M155" s="2">
         <v>4</v>
@@ -7958,8 +7960,8 @@
       <c r="K156" s="2">
         <v>100</v>
       </c>
-      <c r="L156" s="2">
-        <v>14.0067</v>
+      <c r="L156" s="9">
+        <v>28.02</v>
       </c>
       <c r="M156" s="2">
         <v>4</v>
@@ -8005,8 +8007,8 @@
       <c r="K157" s="2">
         <v>30</v>
       </c>
-      <c r="L157" s="2">
-        <v>14.0067</v>
+      <c r="L157" s="9">
+        <v>28.02</v>
       </c>
       <c r="M157" s="2">
         <v>2.5</v>
@@ -8052,8 +8054,8 @@
       <c r="K158" s="2">
         <v>60</v>
       </c>
-      <c r="L158" s="2">
-        <v>14.0067</v>
+      <c r="L158" s="9">
+        <v>28.02</v>
       </c>
       <c r="M158" s="2">
         <v>2.5</v>
@@ -8099,8 +8101,8 @@
       <c r="K159" s="2">
         <v>100</v>
       </c>
-      <c r="L159" s="2">
-        <v>14.0067</v>
+      <c r="L159" s="9">
+        <v>28.02</v>
       </c>
       <c r="M159" s="2">
         <v>2.5</v>
@@ -8146,8 +8148,8 @@
       <c r="K160" s="2">
         <v>30</v>
       </c>
-      <c r="L160" s="2">
-        <v>14.0067</v>
+      <c r="L160" s="9">
+        <v>28.02</v>
       </c>
       <c r="M160" s="2">
         <v>4</v>
@@ -8193,8 +8195,8 @@
       <c r="K161" s="2">
         <v>60</v>
       </c>
-      <c r="L161" s="2">
-        <v>14.0067</v>
+      <c r="L161" s="9">
+        <v>28.02</v>
       </c>
       <c r="M161" s="2">
         <v>4</v>
@@ -8240,8 +8242,8 @@
       <c r="K162" s="2">
         <v>100</v>
       </c>
-      <c r="L162" s="2">
-        <v>14.0067</v>
+      <c r="L162" s="9">
+        <v>28.02</v>
       </c>
       <c r="M162" s="2">
         <v>4</v>
@@ -8287,7 +8289,7 @@
       <c r="K163" s="2">
         <v>5</v>
       </c>
-      <c r="L163" s="2">
+      <c r="L163" s="9">
         <v>28.96</v>
       </c>
       <c r="M163" s="2">
@@ -8334,7 +8336,7 @@
       <c r="K164" s="2">
         <v>5</v>
       </c>
-      <c r="L164" s="2">
+      <c r="L164" s="9">
         <v>28.96</v>
       </c>
       <c r="M164" s="2">
@@ -8381,7 +8383,7 @@
       <c r="K165" s="2">
         <v>5</v>
       </c>
-      <c r="L165" s="2">
+      <c r="L165" s="9">
         <v>28.96</v>
       </c>
       <c r="M165" s="2">
@@ -8428,7 +8430,7 @@
       <c r="K166" s="2">
         <v>5</v>
       </c>
-      <c r="L166" s="2">
+      <c r="L166" s="9">
         <v>28.96</v>
       </c>
       <c r="M166" s="2">
@@ -8475,7 +8477,7 @@
       <c r="K167" s="2">
         <v>5</v>
       </c>
-      <c r="L167" s="2">
+      <c r="L167" s="9">
         <v>28.96</v>
       </c>
       <c r="M167" s="2">
@@ -8522,7 +8524,7 @@
       <c r="K168" s="2">
         <v>5</v>
       </c>
-      <c r="L168" s="2">
+      <c r="L168" s="9">
         <v>28.96</v>
       </c>
       <c r="M168" s="2">
@@ -8569,7 +8571,7 @@
       <c r="K169" s="2">
         <v>5</v>
       </c>
-      <c r="L169" s="2">
+      <c r="L169" s="9">
         <v>28.96</v>
       </c>
       <c r="M169" s="2">
@@ -8616,7 +8618,7 @@
       <c r="K170" s="2">
         <v>5</v>
       </c>
-      <c r="L170" s="2">
+      <c r="L170" s="9">
         <v>28.96</v>
       </c>
       <c r="M170" s="2">
@@ -8663,7 +8665,7 @@
       <c r="K171" s="2">
         <v>5</v>
       </c>
-      <c r="L171" s="2">
+      <c r="L171" s="9">
         <v>28.96</v>
       </c>
       <c r="M171" s="2">
@@ -8710,7 +8712,7 @@
       <c r="K172" s="2">
         <v>5</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172" s="9">
         <v>28.96</v>
       </c>
       <c r="M172" s="2">
@@ -8757,7 +8759,7 @@
       <c r="K173" s="2">
         <v>5</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173" s="9">
         <v>28.96</v>
       </c>
       <c r="M173" s="2">
@@ -8804,7 +8806,7 @@
       <c r="K174" s="2">
         <v>5</v>
       </c>
-      <c r="L174" s="2">
+      <c r="L174" s="9">
         <v>28.96</v>
       </c>
       <c r="M174" s="2">
@@ -8851,7 +8853,7 @@
       <c r="K175" s="2">
         <v>7.5</v>
       </c>
-      <c r="L175" s="2">
+      <c r="L175" s="9">
         <v>28.96</v>
       </c>
       <c r="M175" s="2">
@@ -8898,7 +8900,7 @@
       <c r="K176" s="2">
         <v>7.5</v>
       </c>
-      <c r="L176" s="2">
+      <c r="L176" s="9">
         <v>28.96</v>
       </c>
       <c r="M176" s="2">
@@ -8945,7 +8947,7 @@
       <c r="K177" s="2">
         <v>7.5</v>
       </c>
-      <c r="L177" s="2">
+      <c r="L177" s="9">
         <v>28.96</v>
       </c>
       <c r="M177" s="2">
@@ -8992,7 +8994,7 @@
       <c r="K178" s="2">
         <v>7.5</v>
       </c>
-      <c r="L178" s="2">
+      <c r="L178" s="9">
         <v>28.96</v>
       </c>
       <c r="M178" s="2">
@@ -9039,7 +9041,7 @@
       <c r="K179" s="2">
         <v>10</v>
       </c>
-      <c r="L179" s="2">
+      <c r="L179" s="9">
         <v>28.96</v>
       </c>
       <c r="M179" s="2">
@@ -9086,7 +9088,7 @@
       <c r="K180" s="2">
         <v>10</v>
       </c>
-      <c r="L180" s="2">
+      <c r="L180" s="9">
         <v>28.96</v>
       </c>
       <c r="M180" s="2">
@@ -9133,7 +9135,7 @@
       <c r="K181" s="2">
         <v>10</v>
       </c>
-      <c r="L181" s="2">
+      <c r="L181" s="9">
         <v>28.96</v>
       </c>
       <c r="M181" s="2">
@@ -9180,7 +9182,7 @@
       <c r="K182" s="2">
         <v>10</v>
       </c>
-      <c r="L182" s="2">
+      <c r="L182" s="9">
         <v>28.96</v>
       </c>
       <c r="M182" s="2">
@@ -9227,7 +9229,7 @@
       <c r="K183" s="2">
         <v>12.5</v>
       </c>
-      <c r="L183" s="2">
+      <c r="L183" s="9">
         <v>28.96</v>
       </c>
       <c r="M183" s="2">
@@ -9274,7 +9276,7 @@
       <c r="K184" s="2">
         <v>12.5</v>
       </c>
-      <c r="L184" s="2">
+      <c r="L184" s="9">
         <v>28.96</v>
       </c>
       <c r="M184" s="2">
@@ -9321,7 +9323,7 @@
       <c r="K185" s="2">
         <v>12.5</v>
       </c>
-      <c r="L185" s="2">
+      <c r="L185" s="9">
         <v>28.96</v>
       </c>
       <c r="M185" s="2">
@@ -9368,7 +9370,7 @@
       <c r="K186" s="2">
         <v>12.5</v>
       </c>
-      <c r="L186" s="2">
+      <c r="L186" s="9">
         <v>28.96</v>
       </c>
       <c r="M186" s="2">
@@ -9415,7 +9417,7 @@
       <c r="K187" s="2">
         <v>15</v>
       </c>
-      <c r="L187" s="2">
+      <c r="L187" s="9">
         <v>28.96</v>
       </c>
       <c r="M187" s="2">
@@ -9462,7 +9464,7 @@
       <c r="K188" s="2">
         <v>15</v>
       </c>
-      <c r="L188" s="2">
+      <c r="L188" s="9">
         <v>28.96</v>
       </c>
       <c r="M188" s="2">
@@ -9509,7 +9511,7 @@
       <c r="K189" s="2">
         <v>15</v>
       </c>
-      <c r="L189" s="2">
+      <c r="L189" s="9">
         <v>28.96</v>
       </c>
       <c r="M189" s="2">
@@ -9556,7 +9558,7 @@
       <c r="K190" s="2">
         <v>15</v>
       </c>
-      <c r="L190" s="2">
+      <c r="L190" s="9">
         <v>28.96</v>
       </c>
       <c r="M190" s="2">
@@ -9579,8 +9581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D76216-128E-4D23-8FC7-8CA510EDFDA5}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9697,7 +9699,7 @@
       <c r="M2">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>4.0026020000000004</v>
       </c>
       <c r="O2">
@@ -9750,8 +9752,8 @@
       <c r="M3">
         <v>20</v>
       </c>
-      <c r="N3">
-        <v>14.0067</v>
+      <c r="N3" s="8">
+        <v>28.02</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -9803,8 +9805,8 @@
       <c r="M4">
         <v>20</v>
       </c>
-      <c r="N4">
-        <v>14.0067</v>
+      <c r="N4" s="8">
+        <v>28.02</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -9856,8 +9858,8 @@
       <c r="M5">
         <v>20</v>
       </c>
-      <c r="N5">
-        <v>14.0067</v>
+      <c r="N5" s="8">
+        <v>28.02</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -9909,8 +9911,8 @@
       <c r="M6">
         <v>20</v>
       </c>
-      <c r="N6">
-        <v>14.0067</v>
+      <c r="N6" s="8">
+        <v>28.02</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -9962,8 +9964,8 @@
       <c r="M7">
         <v>20</v>
       </c>
-      <c r="N7">
-        <v>14.0067</v>
+      <c r="N7" s="8">
+        <v>28.02</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -10015,8 +10017,8 @@
       <c r="M8">
         <v>20</v>
       </c>
-      <c r="N8">
-        <v>14.0067</v>
+      <c r="N8" s="8">
+        <v>28.02</v>
       </c>
       <c r="O8">
         <v>4</v>
@@ -10068,8 +10070,8 @@
       <c r="M9">
         <v>20</v>
       </c>
-      <c r="N9">
-        <v>14.0067</v>
+      <c r="N9" s="8">
+        <v>28.02</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -10121,8 +10123,8 @@
       <c r="M10">
         <v>20</v>
       </c>
-      <c r="N10">
-        <v>14.0067</v>
+      <c r="N10" s="8">
+        <v>28.02</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -10174,8 +10176,8 @@
       <c r="M11">
         <v>20</v>
       </c>
-      <c r="N11">
-        <v>14.0067</v>
+      <c r="N11" s="8">
+        <v>28.02</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -10227,8 +10229,8 @@
       <c r="M12">
         <v>20</v>
       </c>
-      <c r="N12">
-        <v>14.0067</v>
+      <c r="N12" s="8">
+        <v>28.02</v>
       </c>
       <c r="O12">
         <v>3</v>
@@ -10280,8 +10282,8 @@
       <c r="M13">
         <v>20</v>
       </c>
-      <c r="N13">
-        <v>14.0067</v>
+      <c r="N13" s="8">
+        <v>28.02</v>
       </c>
       <c r="O13">
         <v>4</v>
@@ -10333,8 +10335,8 @@
       <c r="M14">
         <v>20</v>
       </c>
-      <c r="N14">
-        <v>14.0067</v>
+      <c r="N14" s="8">
+        <v>28.02</v>
       </c>
       <c r="O14">
         <v>4</v>
@@ -10386,8 +10388,8 @@
       <c r="M15">
         <v>20</v>
       </c>
-      <c r="N15">
-        <v>14.0067</v>
+      <c r="N15" s="8">
+        <v>28.02</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -10439,8 +10441,8 @@
       <c r="M16">
         <v>20</v>
       </c>
-      <c r="N16">
-        <v>14.0067</v>
+      <c r="N16" s="8">
+        <v>28.02</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -10492,8 +10494,8 @@
       <c r="M17">
         <v>20</v>
       </c>
-      <c r="N17">
-        <v>14.0067</v>
+      <c r="N17" s="8">
+        <v>28.02</v>
       </c>
       <c r="O17">
         <v>3</v>
@@ -10545,8 +10547,8 @@
       <c r="M18">
         <v>20</v>
       </c>
-      <c r="N18">
-        <v>14.0067</v>
+      <c r="N18" s="8">
+        <v>28.02</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -10598,8 +10600,8 @@
       <c r="M19">
         <v>20</v>
       </c>
-      <c r="N19">
-        <v>14.0067</v>
+      <c r="N19" s="8">
+        <v>28.02</v>
       </c>
       <c r="O19">
         <v>4</v>
@@ -10651,8 +10653,8 @@
       <c r="M20">
         <v>20</v>
       </c>
-      <c r="N20">
-        <v>14.0067</v>
+      <c r="N20" s="8">
+        <v>28.02</v>
       </c>
       <c r="O20">
         <v>4</v>
@@ -10704,8 +10706,8 @@
       <c r="M21">
         <v>20</v>
       </c>
-      <c r="N21">
-        <v>14.0067</v>
+      <c r="N21" s="8">
+        <v>28.02</v>
       </c>
       <c r="O21">
         <v>3</v>
@@ -10757,8 +10759,8 @@
       <c r="M22">
         <v>20</v>
       </c>
-      <c r="N22">
-        <v>14.0067</v>
+      <c r="N22" s="8">
+        <v>28.02</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -10810,8 +10812,8 @@
       <c r="M23">
         <v>20</v>
       </c>
-      <c r="N23">
-        <v>14.0067</v>
+      <c r="N23" s="8">
+        <v>28.02</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -10863,8 +10865,8 @@
       <c r="M24">
         <v>20</v>
       </c>
-      <c r="N24">
-        <v>14.0067</v>
+      <c r="N24" s="8">
+        <v>28.02</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -10916,8 +10918,8 @@
       <c r="M25">
         <v>20</v>
       </c>
-      <c r="N25">
-        <v>14.0067</v>
+      <c r="N25" s="8">
+        <v>28.02</v>
       </c>
       <c r="O25">
         <v>4</v>
@@ -10969,8 +10971,8 @@
       <c r="M26">
         <v>20</v>
       </c>
-      <c r="N26">
-        <v>14.0067</v>
+      <c r="N26" s="8">
+        <v>28.02</v>
       </c>
       <c r="O26">
         <v>4</v>
@@ -11022,8 +11024,8 @@
       <c r="M27">
         <v>20</v>
       </c>
-      <c r="N27">
-        <v>14.0067</v>
+      <c r="N27" s="8">
+        <v>28.02</v>
       </c>
       <c r="O27">
         <v>3</v>
@@ -11075,8 +11077,8 @@
       <c r="M28">
         <v>20</v>
       </c>
-      <c r="N28">
-        <v>14.0067</v>
+      <c r="N28" s="8">
+        <v>28.02</v>
       </c>
       <c r="O28">
         <v>3</v>
@@ -11128,8 +11130,8 @@
       <c r="M29">
         <v>20</v>
       </c>
-      <c r="N29">
-        <v>14.0067</v>
+      <c r="N29" s="8">
+        <v>28.02</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -11181,8 +11183,8 @@
       <c r="M30">
         <v>20</v>
       </c>
-      <c r="N30">
-        <v>14.0067</v>
+      <c r="N30" s="8">
+        <v>28.02</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -11234,8 +11236,8 @@
       <c r="M31">
         <v>20</v>
       </c>
-      <c r="N31">
-        <v>14.0067</v>
+      <c r="N31" s="8">
+        <v>28.02</v>
       </c>
       <c r="O31">
         <v>4</v>
@@ -11287,8 +11289,8 @@
       <c r="M32">
         <v>20</v>
       </c>
-      <c r="N32">
-        <v>14.0067</v>
+      <c r="N32" s="8">
+        <v>28.02</v>
       </c>
       <c r="O32">
         <v>4</v>
@@ -11340,8 +11342,8 @@
       <c r="M33">
         <v>23.8</v>
       </c>
-      <c r="N33">
-        <v>14.0067</v>
+      <c r="N33" s="8">
+        <v>28.02</v>
       </c>
       <c r="O33">
         <v>4</v>
@@ -11393,8 +11395,8 @@
       <c r="M34">
         <v>21.7</v>
       </c>
-      <c r="N34">
-        <v>14.0067</v>
+      <c r="N34" s="8">
+        <v>28.02</v>
       </c>
       <c r="O34">
         <v>4</v>
@@ -11446,7 +11448,7 @@
       <c r="M35">
         <v>23</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="8">
         <v>4.0026020000000004</v>
       </c>
       <c r="O35">
@@ -11499,7 +11501,7 @@
       <c r="M36">
         <v>23</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="8">
         <v>4.0026020000000004</v>
       </c>
       <c r="O36">
@@ -11552,8 +11554,8 @@
       <c r="M37">
         <v>23</v>
       </c>
-      <c r="N37">
-        <v>14.0067</v>
+      <c r="N37" s="8">
+        <v>28.02</v>
       </c>
       <c r="O37">
         <v>2.8</v>
@@ -11605,8 +11607,8 @@
       <c r="M38">
         <v>23</v>
       </c>
-      <c r="N38">
-        <v>14.0067</v>
+      <c r="N38" s="8">
+        <v>28.02</v>
       </c>
       <c r="O38">
         <v>2.8</v>
@@ -11658,7 +11660,7 @@
       <c r="M39">
         <v>12</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="8">
         <v>28.96</v>
       </c>
       <c r="O39">
@@ -11711,7 +11713,7 @@
       <c r="M40">
         <v>12</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="8">
         <v>28.96</v>
       </c>
       <c r="O40">
@@ -11764,7 +11766,7 @@
       <c r="M41">
         <v>12</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="8">
         <v>28.96</v>
       </c>
       <c r="O41">
@@ -11817,7 +11819,7 @@
       <c r="M42">
         <v>12</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="8">
         <v>28.96</v>
       </c>
       <c r="O42">
@@ -11870,7 +11872,7 @@
       <c r="M43">
         <v>72</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="8">
         <v>28.96</v>
       </c>
       <c r="O43">
@@ -11923,7 +11925,7 @@
       <c r="M44">
         <v>72</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="8">
         <v>28.96</v>
       </c>
       <c r="O44">
@@ -11976,7 +11978,7 @@
       <c r="M45">
         <v>72</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="8">
         <v>28.96</v>
       </c>
       <c r="O45">
@@ -12029,7 +12031,7 @@
       <c r="M46">
         <v>72</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="8">
         <v>28.96</v>
       </c>
       <c r="O46">
@@ -12082,7 +12084,7 @@
       <c r="M47">
         <v>12</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="8">
         <v>28.96</v>
       </c>
       <c r="O47">
@@ -12135,7 +12137,7 @@
       <c r="M48">
         <v>12</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="8">
         <v>28.96</v>
       </c>
       <c r="O48">
@@ -12188,7 +12190,7 @@
       <c r="M49">
         <v>12</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="8">
         <v>28.96</v>
       </c>
       <c r="O49">
@@ -12241,7 +12243,7 @@
       <c r="M50">
         <v>12</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="8">
         <v>28.96</v>
       </c>
       <c r="O50">
@@ -12294,7 +12296,7 @@
       <c r="M51">
         <v>12</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="8">
         <v>28.96</v>
       </c>
       <c r="O51">
@@ -12347,7 +12349,7 @@
       <c r="M52">
         <v>12</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="8">
         <v>28.96</v>
       </c>
       <c r="O52">
@@ -12400,7 +12402,7 @@
       <c r="M53">
         <v>12</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="8">
         <v>28.96</v>
       </c>
       <c r="O53">
@@ -12453,7 +12455,7 @@
       <c r="M54">
         <v>12</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="8">
         <v>28.96</v>
       </c>
       <c r="O54">
@@ -12506,7 +12508,7 @@
       <c r="M55">
         <v>12</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="8">
         <v>28.96</v>
       </c>
       <c r="O55">
@@ -12559,7 +12561,7 @@
       <c r="M56">
         <v>12</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="8">
         <v>28.96</v>
       </c>
       <c r="O56">
@@ -12612,7 +12614,7 @@
       <c r="M57">
         <v>12</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="8">
         <v>28.96</v>
       </c>
       <c r="O57">
@@ -12665,7 +12667,7 @@
       <c r="M58">
         <v>12</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="8">
         <v>28.96</v>
       </c>
       <c r="O58">
@@ -12718,7 +12720,7 @@
       <c r="M59">
         <v>12</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="8">
         <v>28.96</v>
       </c>
       <c r="O59">
@@ -12771,7 +12773,7 @@
       <c r="M60">
         <v>12</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="8">
         <v>28.96</v>
       </c>
       <c r="O60">
@@ -12824,7 +12826,7 @@
       <c r="M61">
         <v>12</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="8">
         <v>28.96</v>
       </c>
       <c r="O61">
@@ -12877,7 +12879,7 @@
       <c r="M62">
         <v>12</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="8">
         <v>28.96</v>
       </c>
       <c r="O62">
@@ -12930,7 +12932,7 @@
       <c r="M63">
         <v>12</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="8">
         <v>28.96</v>
       </c>
       <c r="O63">
@@ -12983,7 +12985,7 @@
       <c r="M64">
         <v>12</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="8">
         <v>28.96</v>
       </c>
       <c r="O64">
@@ -13036,7 +13038,7 @@
       <c r="M65">
         <v>12</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="8">
         <v>28.96</v>
       </c>
       <c r="O65">
@@ -13089,7 +13091,7 @@
       <c r="M66">
         <v>12</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="8">
         <v>28.96</v>
       </c>
       <c r="O66">
